--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H2">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I2">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J2">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P2">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q2">
-        <v>40.85713447555667</v>
+        <v>48.77818616265468</v>
       </c>
       <c r="R2">
-        <v>367.71421028001</v>
+        <v>439.0036754638921</v>
       </c>
       <c r="S2">
-        <v>0.5982837521524956</v>
+        <v>0.6362398509590818</v>
       </c>
       <c r="T2">
-        <v>0.6370688075819485</v>
+        <v>0.6413928973311724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.67713833333333</v>
+        <v>21.10423933333334</v>
       </c>
       <c r="H3">
-        <v>53.031415</v>
+        <v>63.312718</v>
       </c>
       <c r="I3">
-        <v>0.7365519675110775</v>
+        <v>0.6507686660290964</v>
       </c>
       <c r="J3">
-        <v>0.7374602219452683</v>
+        <v>0.6511572220885716</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N3">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O3">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P3">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q3">
-        <v>0.4303793946222222</v>
+        <v>1.113871199893667</v>
       </c>
       <c r="R3">
-        <v>3.873414551599999</v>
+        <v>6.683227199362</v>
       </c>
       <c r="S3">
-        <v>0.006302179591614505</v>
+        <v>0.01452881507001471</v>
       </c>
       <c r="T3">
-        <v>0.006710732195471333</v>
+        <v>0.009764324757399122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.67713833333333</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H4">
-        <v>53.031415</v>
+        <v>5.199877</v>
       </c>
       <c r="I4">
-        <v>0.7365519675110775</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J4">
-        <v>0.7374602219452683</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N4">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O4">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P4">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q4">
-        <v>9.012034925131667</v>
+        <v>4.006155103448667</v>
       </c>
       <c r="R4">
-        <v>54.07220955079001</v>
+        <v>36.055395931038</v>
       </c>
       <c r="S4">
-        <v>0.1319660357669674</v>
+        <v>0.05225441383649895</v>
       </c>
       <c r="T4">
-        <v>0.09368068216784853</v>
+        <v>0.05267763381751711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>5.199877</v>
       </c>
       <c r="I5">
-        <v>0.07222095874993341</v>
+        <v>0.05344766621463604</v>
       </c>
       <c r="J5">
-        <v>0.07231001561071104</v>
+        <v>0.0534795783451005</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N5">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O5">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P5">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q5">
-        <v>4.006155103448667</v>
+        <v>0.09148230270716666</v>
       </c>
       <c r="R5">
-        <v>36.055395931038</v>
+        <v>0.5488938162429999</v>
       </c>
       <c r="S5">
-        <v>0.05866337759027291</v>
+        <v>0.001193252378137088</v>
       </c>
       <c r="T5">
-        <v>0.06246635960897516</v>
+        <v>0.000801944527583388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.733292333333333</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H6">
-        <v>5.199877</v>
+        <v>17.778679</v>
       </c>
       <c r="I6">
-        <v>0.07222095874993341</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J6">
-        <v>0.07231001561071104</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02434666666666667</v>
+        <v>2.311298</v>
       </c>
       <c r="N6">
-        <v>0.07303999999999999</v>
+        <v>6.933894</v>
       </c>
       <c r="O6">
-        <v>0.008556327142686945</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P6">
-        <v>0.009099788701510982</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q6">
-        <v>0.04219989067555555</v>
+        <v>13.69727507178067</v>
       </c>
       <c r="R6">
-        <v>0.3797990160799999</v>
+        <v>123.275475646026</v>
       </c>
       <c r="S6">
-        <v>0.0006179461496229295</v>
+        <v>0.178660851003259</v>
       </c>
       <c r="T6">
-        <v>0.0006580058630604311</v>
+        <v>0.1801078644977913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.733292333333333</v>
+        <v>5.926226333333333</v>
       </c>
       <c r="H7">
-        <v>5.199877</v>
+        <v>17.778679</v>
       </c>
       <c r="I7">
-        <v>0.07222095874993341</v>
+        <v>0.1827406496209736</v>
       </c>
       <c r="J7">
-        <v>0.07231001561071104</v>
+        <v>0.1828497590333181</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.5098130000000001</v>
+        <v>0.0527795</v>
       </c>
       <c r="N7">
-        <v>1.019626</v>
+        <v>0.105559</v>
       </c>
       <c r="O7">
-        <v>0.1791673114565167</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P7">
-        <v>0.1270315054020652</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q7">
-        <v>0.8836549643336667</v>
+        <v>0.3127832627601667</v>
       </c>
       <c r="R7">
-        <v>5.301929786002001</v>
+        <v>1.876699576561</v>
       </c>
       <c r="S7">
-        <v>0.01293963501003756</v>
+        <v>0.004079798617714595</v>
       </c>
       <c r="T7">
-        <v>0.009185650138675457</v>
+        <v>0.002741894535526841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>3.321288666666666</v>
+        <v>0.058054</v>
       </c>
       <c r="H8">
-        <v>9.963865999999999</v>
+        <v>0.116108</v>
       </c>
       <c r="I8">
-        <v>0.1383878802086788</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J8">
-        <v>0.1385585285965482</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,27 +936,27 @@
         <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P8">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q8">
-        <v>7.676487852689333</v>
+        <v>0.134180094092</v>
       </c>
       <c r="R8">
-        <v>69.08839067420401</v>
+        <v>0.8050805645520001</v>
       </c>
       <c r="S8">
-        <v>0.1124092037978748</v>
+        <v>0.001750182402889978</v>
       </c>
       <c r="T8">
-        <v>0.1196963767896127</v>
+        <v>0.001176238343192402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>3.321288666666666</v>
+        <v>0.058054</v>
       </c>
       <c r="H9">
-        <v>9.963865999999999</v>
+        <v>0.116108</v>
       </c>
       <c r="I9">
-        <v>0.1383878802086788</v>
+        <v>0.001790148582990221</v>
       </c>
       <c r="J9">
-        <v>0.1385585285965482</v>
+        <v>0.001194144954292751</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N9">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O9">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P9">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q9">
-        <v>0.0808623080711111</v>
+        <v>0.003064061093</v>
       </c>
       <c r="R9">
-        <v>0.7277607726399999</v>
+        <v>0.012256244372</v>
       </c>
       <c r="S9">
-        <v>0.001184091975648427</v>
+        <v>3.996618010024307E-05</v>
       </c>
       <c r="T9">
-        <v>0.001260853333020855</v>
+        <v>1.790661110034949E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.321288666666666</v>
+        <v>3.607898333333333</v>
       </c>
       <c r="H10">
-        <v>9.963865999999999</v>
+        <v>10.823695</v>
       </c>
       <c r="I10">
-        <v>0.1383878802086788</v>
+        <v>0.1112528695523038</v>
       </c>
       <c r="J10">
-        <v>0.1385585285965482</v>
+        <v>0.1113192955787171</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N10">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O10">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P10">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q10">
-        <v>1.693236139019333</v>
+        <v>8.338928202036668</v>
       </c>
       <c r="R10">
-        <v>10.159416834116</v>
+        <v>75.05035381833001</v>
       </c>
       <c r="S10">
-        <v>0.02479458443515547</v>
+        <v>0.1087690800705564</v>
       </c>
       <c r="T10">
-        <v>0.01760129847391461</v>
+        <v>0.1096500247529876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.607898333333333</v>
+      </c>
+      <c r="H11">
+        <v>10.823695</v>
+      </c>
+      <c r="I11">
+        <v>0.1112528695523038</v>
+      </c>
+      <c r="J11">
+        <v>0.1113192955787171</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <v>0.0886745</v>
-      </c>
-      <c r="H11">
-        <v>0.177349</v>
-      </c>
-      <c r="I11">
-        <v>0.00369479359223553</v>
-      </c>
-      <c r="J11">
-        <v>0.002466233135619168</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N11">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O11">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P11">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q11">
-        <v>0.204953194501</v>
+        <v>0.1904230700841667</v>
       </c>
       <c r="R11">
-        <v>1.229719167006</v>
+        <v>1.142538420505</v>
       </c>
       <c r="S11">
-        <v>0.003001193495228054</v>
+        <v>0.002483789481747455</v>
       </c>
       <c r="T11">
-        <v>0.002130501627306211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0886745</v>
-      </c>
-      <c r="H12">
-        <v>0.177349</v>
-      </c>
-      <c r="I12">
-        <v>0.00369479359223553</v>
-      </c>
-      <c r="J12">
-        <v>0.002466233135619168</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P12">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q12">
-        <v>0.002158928493333333</v>
-      </c>
-      <c r="R12">
-        <v>0.01295357096</v>
-      </c>
-      <c r="S12">
-        <v>3.161386269987066E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.244220042279931E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0886745</v>
-      </c>
-      <c r="H13">
-        <v>0.177349</v>
-      </c>
-      <c r="I13">
-        <v>0.00369479359223553</v>
-      </c>
-      <c r="J13">
-        <v>0.002466233135619168</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N13">
-        <v>1.019626</v>
-      </c>
-      <c r="O13">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P13">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q13">
-        <v>0.04520741286850001</v>
-      </c>
-      <c r="R13">
-        <v>0.180829651474</v>
-      </c>
-      <c r="S13">
-        <v>0.0006619862343076055</v>
-      </c>
-      <c r="T13">
-        <v>0.0003132893078901585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.179458333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.538375</v>
-      </c>
-      <c r="I14">
-        <v>0.04914439993807462</v>
-      </c>
-      <c r="J14">
-        <v>0.04920500071185332</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.311298</v>
-      </c>
-      <c r="N14">
-        <v>6.933894</v>
-      </c>
-      <c r="O14">
-        <v>0.8122763614007963</v>
-      </c>
-      <c r="P14">
-        <v>0.8638687058964239</v>
-      </c>
-      <c r="Q14">
-        <v>2.726079686916667</v>
-      </c>
-      <c r="R14">
-        <v>24.53471718225</v>
-      </c>
-      <c r="S14">
-        <v>0.03991883436492476</v>
-      </c>
-      <c r="T14">
-        <v>0.04250666028858135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.179458333333333</v>
-      </c>
-      <c r="H15">
-        <v>3.538375</v>
-      </c>
-      <c r="I15">
-        <v>0.04914439993807462</v>
-      </c>
-      <c r="J15">
-        <v>0.04920500071185332</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P15">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q15">
-        <v>0.02871587888888889</v>
-      </c>
-      <c r="R15">
-        <v>0.25844291</v>
-      </c>
-      <c r="S15">
-        <v>0.0004204955631012104</v>
-      </c>
-      <c r="T15">
-        <v>0.0004477551095355627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.179458333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.538375</v>
-      </c>
-      <c r="I16">
-        <v>0.04914439993807462</v>
-      </c>
-      <c r="J16">
-        <v>0.04920500071185332</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.019626</v>
-      </c>
-      <c r="O16">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P16">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q16">
-        <v>0.6013031912916668</v>
-      </c>
-      <c r="R16">
-        <v>3.60781914775</v>
-      </c>
-      <c r="S16">
-        <v>0.008805070010048635</v>
-      </c>
-      <c r="T16">
-        <v>0.006250585313736416</v>
+        <v>0.00166927082572947</v>
       </c>
     </row>
   </sheetData>
